--- a/County-SO-Data/Klickitat/Klickitat.xlsx
+++ b/County-SO-Data/Klickitat/Klickitat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidris\Documents\GitHub\wa-pursuit-pdr-data\County-SO-Data\Klickitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E649BE96-8F0F-45FF-BE06-143F5A2FB9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E753F1-4BF0-40AA-8864-DD0C0FD2BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1270" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="990" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -374,11 +381,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328C9056-2765-4E53-8A4C-10236F112F4A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/County-SO-Data/Klickitat/Klickitat.xlsx
+++ b/County-SO-Data/Klickitat/Klickitat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidris\Documents\GitHub\wa-pursuit-pdr-data\County-SO-Data\Klickitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E753F1-4BF0-40AA-8864-DD0C0FD2BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25B240-4FC0-4909-9DCA-A8D1F5462654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="990" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="970" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -381,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328C9056-2765-4E53-8A4C-10236F112F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D155787-5A49-42DD-9716-ADB5C97C2BE7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
